--- a/data/trans_orig/IP05B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP05B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{155C35CE-8F88-4448-A018-50DB37EBD8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90A36D2-1F26-4BB3-ABD6-ADB77656E47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{509D4C86-D631-4EF8-8585-EF088D5A3624}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E88EC4E8-5E54-46EF-96F7-E6DC70DC27FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="612">
   <si>
     <t>Población según la calidad del medio ambiente de su barrio en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -116,1750 +116,1765 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>3,51%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según la calidad del medio ambiente de su barrio en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>Población según la calidad del medio ambiente de su barrio en 2016 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>Población según la calidad del medio ambiente de su barrio en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según la calidad del medio ambiente de su barrio en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>Población según la calidad del medio ambiente de su barrio en 2015 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>Población según la calidad del medio ambiente de su barrio en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
     <t>73,3%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>18,42%</t>
   </si>
   <si>
-    <t>20,5%</t>
+    <t>16,72%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D28141-3103-4019-8448-38D84EC72334}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD87CC85-A399-4202-B98F-4E59DD66AA9F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3203,13 +3218,13 @@
         <v>49875</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -3218,13 +3233,13 @@
         <v>47166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>151</v>
@@ -3233,13 +3248,13 @@
         <v>97041</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3310,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3307,13 +3322,13 @@
         <v>667</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3322,13 +3337,13 @@
         <v>2214</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -3337,13 +3352,13 @@
         <v>2882</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3373,13 @@
         <v>3881</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3373,13 +3388,13 @@
         <v>3382</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -3388,13 +3403,13 @@
         <v>7264</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3424,13 @@
         <v>33651</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -3424,13 +3439,13 @@
         <v>34533</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>100</v>
@@ -3439,13 +3454,13 @@
         <v>68184</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3475,13 @@
         <v>98750</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -3475,13 +3490,13 @@
         <v>113864</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>315</v>
@@ -3490,13 +3505,13 @@
         <v>212614</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3526,13 @@
         <v>20523</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -3526,13 +3541,13 @@
         <v>20073</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>59</v>
@@ -3541,13 +3556,13 @@
         <v>40596</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3630,13 @@
         <v>3269</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -3669,10 +3684,10 @@
         <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -3681,13 +3696,13 @@
         <v>21313</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>62</v>
@@ -3696,13 +3711,13 @@
         <v>41289</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3732,13 @@
         <v>156795</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>215</v>
@@ -3732,13 +3747,13 @@
         <v>145962</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>451</v>
@@ -3747,13 +3762,13 @@
         <v>302758</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3783,13 @@
         <v>462458</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -3783,13 +3798,13 @@
         <v>431853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>1340</v>
@@ -3798,13 +3813,13 @@
         <v>894311</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3834,13 @@
         <v>79049</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>119</v>
@@ -3834,13 +3849,13 @@
         <v>76978</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>237</v>
@@ -3849,13 +3864,13 @@
         <v>156027</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,7 +3926,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930388DC-C2C8-4283-8283-B1922007FA89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DF227A-6199-467B-A710-AE24A35ED502}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3948,7 +3963,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4357,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4372,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4387,7 +4402,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4417,13 @@
         <v>4266</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4417,13 +4432,13 @@
         <v>695</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4432,13 +4447,13 @@
         <v>4960</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4468,13 @@
         <v>16300</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -4468,13 +4483,13 @@
         <v>19323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
@@ -4483,13 +4498,13 @@
         <v>35622</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4519,13 @@
         <v>57092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -4519,7 +4534,7 @@
         <v>61354</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>218</v>
@@ -4558,10 +4573,10 @@
         <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4570,13 +4585,13 @@
         <v>10229</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4665,7 +4680,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4674,13 +4689,13 @@
         <v>1310</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4689,13 +4704,13 @@
         <v>1990</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4725,13 @@
         <v>6330</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4725,13 +4740,13 @@
         <v>4688</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4767,7 +4782,7 @@
         <v>244</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="H18" s="7">
         <v>92</v>
@@ -4776,13 +4791,13 @@
         <v>63820</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>181</v>
@@ -4791,13 +4806,13 @@
         <v>123799</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4827,13 @@
         <v>365925</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
         <v>484</v>
@@ -4827,13 +4842,13 @@
         <v>334683</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>1004</v>
@@ -4842,13 +4857,13 @@
         <v>700609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,10 +4878,10 @@
         <v>61530</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>262</v>
@@ -4955,7 +4970,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4967,13 +4982,13 @@
         <v>1014</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4982,13 +4997,13 @@
         <v>2615</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -4997,13 +5012,13 @@
         <v>3629</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5048,13 @@
         <v>2935</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -5048,13 +5063,13 @@
         <v>4450</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5084,13 @@
         <v>23783</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -5084,13 +5099,13 @@
         <v>23746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
@@ -5099,13 +5114,13 @@
         <v>47530</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>41</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5135,13 @@
         <v>123970</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>166</v>
@@ -5135,13 +5150,13 @@
         <v>116818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>343</v>
@@ -5150,13 +5165,13 @@
         <v>240789</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5186,13 @@
         <v>20476</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -5186,13 +5201,13 @@
         <v>19964</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>59</v>
@@ -5201,13 +5216,13 @@
         <v>40440</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5290,13 @@
         <v>1695</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -5293,10 +5308,10 @@
         <v>65</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -5305,13 +5320,13 @@
         <v>5620</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5341,13 @@
         <v>12111</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5341,13 +5356,13 @@
         <v>8317</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -5356,13 +5371,13 @@
         <v>20429</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5392,13 @@
         <v>100062</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H30" s="7">
         <v>152</v>
@@ -5392,13 +5407,13 @@
         <v>106889</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M30" s="7">
         <v>297</v>
@@ -5407,13 +5422,13 @@
         <v>206951</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5443,13 @@
         <v>547628</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H31" s="7">
         <v>739</v>
@@ -5443,13 +5458,13 @@
         <v>512855</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M31" s="7">
         <v>1516</v>
@@ -5458,13 +5473,13 @@
         <v>1060483</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5494,13 @@
         <v>90541</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="H32" s="7">
         <v>113</v>
@@ -5494,13 +5509,13 @@
         <v>77401</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M32" s="7">
         <v>244</v>
@@ -5512,10 +5527,10 @@
         <v>266</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,7 +5586,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5591,7 +5606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3104BE05-227A-4128-B52F-4C59E7C96A9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2FA687-9939-4EF1-AF3D-BAB889D7CD55}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5608,7 +5623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5993,7 +6008,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6008,7 +6023,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6017,13 +6032,13 @@
         <v>610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6053,13 @@
         <v>1369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6053,13 +6068,13 @@
         <v>1228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -6068,13 +6083,13 @@
         <v>2597</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6104,13 @@
         <v>8910</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>187</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -6104,13 +6119,13 @@
         <v>8624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -6119,13 +6134,13 @@
         <v>17534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6155,13 @@
         <v>41187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -6155,13 +6170,13 @@
         <v>38350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -6170,13 +6185,13 @@
         <v>79538</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6206,13 @@
         <v>16538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -6206,13 +6221,13 @@
         <v>11176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -6221,13 +6236,13 @@
         <v>27715</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6310,13 @@
         <v>2143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6310,13 +6325,13 @@
         <v>2065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6325,10 +6340,10 @@
         <v>4208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>274</v>
@@ -6346,13 +6361,13 @@
         <v>2976</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -6361,13 +6376,13 @@
         <v>11000</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>35</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -6376,13 +6391,13 @@
         <v>13976</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6412,13 @@
         <v>59485</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H18" s="7">
         <v>89</v>
@@ -6412,13 +6427,13 @@
         <v>59401</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M18" s="7">
         <v>174</v>
@@ -6427,13 +6442,13 @@
         <v>118886</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6463,13 @@
         <v>306902</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>414</v>
@@ -6463,13 +6478,13 @@
         <v>272421</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>853</v>
@@ -6478,13 +6493,13 @@
         <v>579323</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6514,13 @@
         <v>116551</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -6514,13 +6529,13 @@
         <v>124962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>349</v>
@@ -6529,13 +6544,13 @@
         <v>241513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,7 +6606,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6609,7 +6624,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6624,7 +6639,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6633,13 +6648,13 @@
         <v>1655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6669,13 @@
         <v>1409</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -6669,13 +6684,13 @@
         <v>571</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -6687,10 +6702,10 @@
         <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6720,13 @@
         <v>18563</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>284</v>
+        <v>427</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -6720,13 +6735,13 @@
         <v>20816</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -6735,13 +6750,13 @@
         <v>39379</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6771,13 @@
         <v>118524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>175</v>
@@ -6771,13 +6786,13 @@
         <v>117697</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M25" s="7">
         <v>346</v>
@@ -6786,13 +6801,13 @@
         <v>236220</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,13 +6822,13 @@
         <v>46526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -6822,13 +6837,13 @@
         <v>33619</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -6837,13 +6852,13 @@
         <v>80145</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>449</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +6926,13 @@
         <v>4408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>70</v>
+        <v>451</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -6926,13 +6941,13 @@
         <v>2065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -6941,13 +6956,13 @@
         <v>6474</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6977,13 @@
         <v>5754</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>448</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -6977,13 +6992,13 @@
         <v>12798</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -6992,13 +7007,13 @@
         <v>18552</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +7028,13 @@
         <v>86958</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H30" s="7">
         <v>131</v>
@@ -7028,13 +7043,13 @@
         <v>88840</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>457</v>
+        <v>109</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>459</v>
+        <v>396</v>
       </c>
       <c r="M30" s="7">
         <v>256</v>
@@ -7043,13 +7058,13 @@
         <v>175798</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7079,13 @@
         <v>466613</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H31" s="7">
         <v>647</v>
@@ -7079,13 +7094,13 @@
         <v>428468</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M31" s="7">
         <v>1317</v>
@@ -7094,13 +7109,13 @@
         <v>895081</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7130,13 @@
         <v>179615</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H32" s="7">
         <v>255</v>
@@ -7130,13 +7145,13 @@
         <v>169758</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M32" s="7">
         <v>509</v>
@@ -7145,13 +7160,13 @@
         <v>349372</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7207,7 +7222,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -7227,7 +7242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BD27A9-8252-47F3-98E4-FF1DEAB3DEF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722E7FC8-0DAD-41EF-A5F9-6630E918013D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7244,7 +7259,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7647,13 +7662,13 @@
         <v>921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7668,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -7677,13 +7692,13 @@
         <v>921</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,13 +7713,13 @@
         <v>1194</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7713,13 +7728,13 @@
         <v>843</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -7728,13 +7743,13 @@
         <v>2037</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>494</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7764,13 @@
         <v>3503</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>163</v>
+        <v>497</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -7764,13 +7779,13 @@
         <v>4078</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -7779,13 +7794,13 @@
         <v>7581</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7815,13 @@
         <v>41991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -7815,13 +7830,13 @@
         <v>36713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -7830,13 +7845,13 @@
         <v>78703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,13 +7866,13 @@
         <v>11148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>508</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>509</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -7866,13 +7881,13 @@
         <v>9569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -7881,13 +7896,13 @@
         <v>20716</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,7 +7976,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7976,7 +7991,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8006,13 +8021,13 @@
         <v>2597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>516</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -8021,13 +8036,13 @@
         <v>11533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -8036,13 +8051,13 @@
         <v>14130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>448</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,13 +8072,13 @@
         <v>25381</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>522</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -8072,13 +8087,13 @@
         <v>31425</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>186</v>
+        <v>529</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
@@ -8087,13 +8102,13 @@
         <v>56806</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>526</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,13 +8123,13 @@
         <v>380235</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H19" s="7">
         <v>470</v>
@@ -8123,13 +8138,13 @@
         <v>322606</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>536</v>
       </c>
       <c r="M19" s="7">
         <v>973</v>
@@ -8138,13 +8153,13 @@
         <v>702841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8159,13 +8174,13 @@
         <v>84152</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>536</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>124</v>
@@ -8174,13 +8189,13 @@
         <v>84404</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>234</v>
@@ -8189,13 +8204,13 @@
         <v>168556</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,7 +8266,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8269,7 +8284,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8284,7 +8299,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -8293,13 +8308,13 @@
         <v>953</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8314,13 +8329,13 @@
         <v>3849</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>552</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8329,13 +8344,13 @@
         <v>620</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -8344,13 +8359,13 @@
         <v>4468</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>275</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8365,13 +8380,13 @@
         <v>9237</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>552</v>
+        <v>74</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -8380,13 +8395,13 @@
         <v>17837</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>556</v>
+        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -8395,13 +8410,13 @@
         <v>27075</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8416,13 +8431,13 @@
         <v>123907</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H25" s="7">
         <v>157</v>
@@ -8431,13 +8446,13 @@
         <v>102728</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="M25" s="7">
         <v>328</v>
@@ -8446,13 +8461,13 @@
         <v>226635</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8467,13 +8482,13 @@
         <v>35077</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -8482,13 +8497,13 @@
         <v>29336</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>576</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -8497,13 +8512,13 @@
         <v>64413</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>475</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8571,13 +8586,13 @@
         <v>1874</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>577</v>
+        <v>488</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8592,7 +8607,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>582</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -8607,7 +8622,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>578</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8622,13 +8637,13 @@
         <v>7639</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>233</v>
+        <v>583</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>71</v>
+        <v>584</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>579</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -8637,13 +8652,13 @@
         <v>12996</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>581</v>
+        <v>71</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -8652,13 +8667,13 @@
         <v>20635</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>448</v>
+        <v>524</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>445</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8673,13 +8688,13 @@
         <v>38121</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>524</v>
+        <v>226</v>
       </c>
       <c r="H30" s="7">
         <v>75</v>
@@ -8688,13 +8703,13 @@
         <v>53340</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M30" s="7">
         <v>133</v>
@@ -8703,13 +8718,13 @@
         <v>91462</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8724,13 +8739,13 @@
         <v>546133</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>329</v>
+        <v>595</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H31" s="7">
         <v>674</v>
@@ -8739,13 +8754,13 @@
         <v>463218</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="M31" s="7">
         <v>1408</v>
@@ -8754,13 +8769,13 @@
         <v>1009350</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8775,13 +8790,13 @@
         <v>130377</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H32" s="7">
         <v>185</v>
@@ -8790,13 +8805,13 @@
         <v>123309</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="M32" s="7">
         <v>355</v>
@@ -8805,13 +8820,13 @@
         <v>253685</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>606</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8867,7 +8882,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
